--- a/notebooks/MRPL39/input/MRPL39_COXPD59_individuals.xlsx
+++ b/notebooks/MRPL39/input/MRPL39_COXPD59_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/MRPL39/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844ABD12-A7E6-6E4C-A6C9-20B986F75F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D767AF7-FBB2-7946-8E2D-3ED17218F13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="6360" windowWidth="32420" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5340" windowWidth="32420" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="111">
   <si>
     <t>PMID</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Vomiting</t>
   </si>
   <si>
-    <t>Gastroesophageal reflux</t>
-  </si>
-  <si>
     <t>Hypertrophic cardiomyopathy</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>HP:0002013</t>
   </si>
   <si>
-    <t>HP:0002020</t>
-  </si>
-  <si>
     <t>HP:0001639</t>
   </si>
   <si>
@@ -253,9 +247,6 @@
     <t>F</t>
   </si>
   <si>
-    <t xml:space="preserve">Increased circulating lactate concentration </t>
-  </si>
-  <si>
     <t>excluded</t>
   </si>
   <si>
@@ -353,6 +344,15 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Abnormal basal ganglia MRI signal intensity</t>
+  </si>
+  <si>
+    <t>HP:0012751</t>
+  </si>
+  <si>
+    <t>Increased circulating lactate concentration</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,10 +808,10 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>24</v>
@@ -820,10 +820,10 @@
         <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>27</v>
@@ -831,8 +831,8 @@
       <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>29</v>
+      <c r="AF1" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>67</v>
@@ -844,129 +844,129 @@
         <v>71</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AN1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AO1" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="AP1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
       <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" t="s">
         <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>63</v>
       </c>
       <c r="AD2" t="s">
         <v>52</v>
       </c>
       <c r="AE2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AG2" t="s">
         <v>68</v>
@@ -978,289 +978,424 @@
         <v>72</v>
       </c>
       <c r="AJ2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="AL2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AN2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" t="s">
-        <v>83</v>
-      </c>
       <c r="AP2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AQ2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AR2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" t="s">
         <v>81</v>
       </c>
-      <c r="O3" t="s">
-        <v>84</v>
-      </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>59</v>
       </c>
       <c r="AB3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC3" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>59</v>
       </c>
       <c r="AF3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AH3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AI3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AJ3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
         <v>78</v>
       </c>
-      <c r="AN3" t="s">
-        <v>81</v>
-      </c>
       <c r="AO3" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
         <v>104</v>
       </c>
-      <c r="L4" t="s">
-        <v>107</v>
-      </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" t="s">
+        <v>75</v>
       </c>
       <c r="T4" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="U4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>83</v>
       </c>
       <c r="Z4" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>62</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>83</v>
       </c>
       <c r="AF4" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>75</v>
       </c>
       <c r="AP4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AQ4" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
       </c>
       <c r="U5" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="V5" t="s">
+        <v>94</v>
       </c>
       <c r="W5" t="s">
-        <v>97</v>
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>87</v>
       </c>
       <c r="Z5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AA5" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>87</v>
       </c>
       <c r="AD5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AE5" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>40</v>
       </c>
       <c r="AH5" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AI5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
       </c>
       <c r="AQ5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AR5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
